--- a/out/production/Multiexcel/backend/testData.xlsx
+++ b/out/production/Multiexcel/backend/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\BSTX-Internal\3_Dokumentation\04_tabulka dielov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programovanie\5.semester\TIS\Multiexcel\src\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_825DFEC892A91D34FF930F0FE3DC13F2BCC2D231" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00C9F835-C3EB-468C-B2EE-476BDBAFF6BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0160BE5-508E-49C3-9A78-A2C1A3BDB22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="608">
   <si>
     <t>Skica</t>
   </si>
@@ -1917,7 +1917,7 @@
     <numFmt numFmtId="166" formatCode="\Ø\ 0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0\ [$ShA]"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2471,13 +2471,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2486,6 +2479,13 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0\ [$N/mm]"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -14309,7 +14309,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabuľka3" displayName="Tabuľka3" ref="A1:W354" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" headerRowCellStyle="Normálna 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabuľka3" displayName="Tabuľka3" ref="A1:W354" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" headerRowCellStyle="Normálna 3">
   <autoFilter ref="A1:W354" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="3">
       <filters>
@@ -14347,7 +14347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14670,38 +14670,38 @@
   <dimension ref="A1:X354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="58.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="58.109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="26" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="5"/>
-    <col min="17" max="17" width="10.5703125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="5"/>
-    <col min="19" max="19" width="21.28515625" style="26" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" style="26" customWidth="1"/>
-    <col min="21" max="21" width="22.140625" style="26" customWidth="1"/>
-    <col min="22" max="23" width="19.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="5"/>
+    <col min="17" max="17" width="10.5546875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="5"/>
+    <col min="19" max="19" width="21.33203125" style="26" customWidth="1"/>
+    <col min="20" max="20" width="22.44140625" style="26" customWidth="1"/>
+    <col min="21" max="21" width="22.109375" style="26" customWidth="1"/>
+    <col min="22" max="23" width="19.88671875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="54.75" thickBot="1">
+    <row r="1" spans="1:23" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="120" customHeight="1">
+    <row r="2" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="12" t="s">
         <v>23</v>
@@ -14841,7 +14841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="35.1" customHeight="1">
+    <row r="3" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="4" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="12" t="s">
         <v>29</v>
@@ -14981,7 +14981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="5" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="12" t="s">
         <v>33</v>
@@ -15050,7 +15050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="6" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="12" t="s">
         <v>34</v>
@@ -15119,7 +15119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="7" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="12" t="s">
         <v>39</v>
@@ -15188,7 +15188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="8" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="12" t="s">
         <v>43</v>
@@ -15257,7 +15257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="9" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="12" t="s">
         <v>45</v>
@@ -15326,7 +15326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="10" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
@@ -15359,7 +15359,7 @@
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
     </row>
-    <row r="11" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="11" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="12" t="s">
         <v>48</v>
@@ -15428,7 +15428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="12" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
@@ -15461,7 +15461,7 @@
       <c r="V12" s="27"/>
       <c r="W12" s="27"/>
     </row>
-    <row r="13" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="13" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="12" t="s">
         <v>54</v>
@@ -15530,7 +15530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="14" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
     </row>
-    <row r="15" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="15" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -15596,7 +15596,7 @@
       <c r="V15" s="27"/>
       <c r="W15" s="27"/>
     </row>
-    <row r="16" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="16" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="12" t="s">
         <v>58</v>
@@ -15665,7 +15665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="17" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>60</v>
       </c>
@@ -15698,7 +15698,7 @@
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
     </row>
-    <row r="18" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="18" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>60</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
     </row>
-    <row r="19" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="19" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="12" t="s">
         <v>65</v>
@@ -15800,7 +15800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="20" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="12" t="s">
         <v>67</v>
@@ -15869,7 +15869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="21" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="12" t="s">
         <v>72</v>
@@ -15938,7 +15938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="22" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>74</v>
       </c>
@@ -15971,7 +15971,7 @@
       <c r="V22" s="27"/>
       <c r="W22" s="27"/>
     </row>
-    <row r="23" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="23" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>74</v>
       </c>
@@ -16004,7 +16004,7 @@
       <c r="V23" s="27"/>
       <c r="W23" s="27"/>
     </row>
-    <row r="24" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="24" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
@@ -16037,7 +16037,7 @@
       <c r="V24" s="27"/>
       <c r="W24" s="27"/>
     </row>
-    <row r="25" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="25" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="12" t="s">
         <v>79</v>
@@ -16106,7 +16106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="26" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>80</v>
       </c>
@@ -16139,7 +16139,7 @@
       <c r="V26" s="27"/>
       <c r="W26" s="27"/>
     </row>
-    <row r="27" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="27" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
@@ -16172,7 +16172,7 @@
       <c r="V27" s="27"/>
       <c r="W27" s="27"/>
     </row>
-    <row r="28" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="28" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="12" t="s">
         <v>83</v>
@@ -16241,7 +16241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="29" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>86</v>
       </c>
@@ -16274,7 +16274,7 @@
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
     </row>
-    <row r="30" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="30" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="12" t="s">
         <v>88</v>
@@ -16343,7 +16343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="31" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="12" t="s">
         <v>91</v>
@@ -16412,7 +16412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="32" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>94</v>
       </c>
@@ -16445,7 +16445,7 @@
       <c r="V32" s="27"/>
       <c r="W32" s="27"/>
     </row>
-    <row r="33" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="33" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="12" t="s">
         <v>96</v>
@@ -16514,7 +16514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="120" customHeight="1">
+    <row r="34" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="12" t="s">
         <v>100</v>
@@ -16583,7 +16583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="120" customHeight="1">
+    <row r="35" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="12" t="s">
         <v>102</v>
@@ -16652,7 +16652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="36" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="12" t="s">
         <v>104</v>
@@ -16721,7 +16721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="37" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>106</v>
       </c>
@@ -16756,7 +16756,7 @@
       <c r="V37" s="27"/>
       <c r="W37" s="27"/>
     </row>
-    <row r="38" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="38" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>108</v>
       </c>
@@ -16789,7 +16789,7 @@
       <c r="V38" s="27"/>
       <c r="W38" s="27"/>
     </row>
-    <row r="39" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="39" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>108</v>
       </c>
@@ -16822,7 +16822,7 @@
       <c r="V39" s="27"/>
       <c r="W39" s="27"/>
     </row>
-    <row r="40" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="40" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="12" t="s">
         <v>113</v>
@@ -16891,7 +16891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="41" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="12" t="s">
         <v>115</v>
@@ -16960,7 +16960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="42" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="12" t="s">
         <v>116</v>
@@ -17029,7 +17029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="43" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>108</v>
       </c>
@@ -17062,7 +17062,7 @@
       <c r="V43" s="27"/>
       <c r="W43" s="27"/>
     </row>
-    <row r="44" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="44" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="12" t="s">
         <v>120</v>
@@ -17131,7 +17131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="45" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="12" t="s">
         <v>124</v>
@@ -17200,7 +17200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="46" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="12" t="s">
         <v>127</v>
@@ -17269,7 +17269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="47" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="12" t="s">
         <v>129</v>
@@ -17338,7 +17338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="48" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="12" t="s">
         <v>131</v>
@@ -17407,7 +17407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="49" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="12" t="s">
         <v>132</v>
@@ -17476,7 +17476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="50" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="12" t="s">
         <v>135</v>
@@ -17545,7 +17545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="51" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="12" t="s">
         <v>137</v>
@@ -17614,7 +17614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="52" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="12" t="s">
         <v>140</v>
@@ -17683,7 +17683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="53" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>142</v>
       </c>
@@ -17718,7 +17718,7 @@
       <c r="V53" s="27"/>
       <c r="W53" s="27"/>
     </row>
-    <row r="54" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="54" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="12" t="s">
         <v>144</v>
@@ -17787,7 +17787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="55" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="12" t="s">
         <v>146</v>
@@ -17856,7 +17856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="56" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>147</v>
       </c>
@@ -17891,7 +17891,7 @@
       <c r="V56" s="27"/>
       <c r="W56" s="27"/>
     </row>
-    <row r="57" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="57" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>147</v>
       </c>
@@ -17926,7 +17926,7 @@
       <c r="V57" s="27"/>
       <c r="W57" s="27"/>
     </row>
-    <row r="58" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="58" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>147</v>
       </c>
@@ -17961,7 +17961,7 @@
       <c r="V58" s="27"/>
       <c r="W58" s="27"/>
     </row>
-    <row r="59" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="59" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>147</v>
       </c>
@@ -17996,7 +17996,7 @@
       <c r="V59" s="27"/>
       <c r="W59" s="27"/>
     </row>
-    <row r="60" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="60" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>147</v>
       </c>
@@ -18031,7 +18031,7 @@
       <c r="V60" s="27"/>
       <c r="W60" s="27"/>
     </row>
-    <row r="61" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="61" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>147</v>
       </c>
@@ -18064,7 +18064,7 @@
       <c r="V61" s="27"/>
       <c r="W61" s="27"/>
     </row>
-    <row r="62" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="62" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="12" t="s">
         <v>154</v>
@@ -18133,7 +18133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="63" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>142</v>
       </c>
@@ -18166,7 +18166,7 @@
       <c r="V63" s="27"/>
       <c r="W63" s="27"/>
     </row>
-    <row r="64" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="64" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>142</v>
       </c>
@@ -18199,7 +18199,7 @@
       <c r="V64" s="27"/>
       <c r="W64" s="27"/>
     </row>
-    <row r="65" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="65" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="12" t="s">
         <v>157</v>
@@ -18268,7 +18268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="66" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>159</v>
       </c>
@@ -18301,7 +18301,7 @@
       <c r="V66" s="27"/>
       <c r="W66" s="27"/>
     </row>
-    <row r="67" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="67" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>159</v>
       </c>
@@ -18334,7 +18334,7 @@
       <c r="V67" s="27"/>
       <c r="W67" s="27"/>
     </row>
-    <row r="68" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="68" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>159</v>
       </c>
@@ -18367,7 +18367,7 @@
       <c r="V68" s="27"/>
       <c r="W68" s="27"/>
     </row>
-    <row r="69" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="69" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>159</v>
       </c>
@@ -18400,7 +18400,7 @@
       <c r="V69" s="27"/>
       <c r="W69" s="27"/>
     </row>
-    <row r="70" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="70" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>159</v>
       </c>
@@ -18433,7 +18433,7 @@
       <c r="V70" s="27"/>
       <c r="W70" s="27"/>
     </row>
-    <row r="71" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="71" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>159</v>
       </c>
@@ -18466,7 +18466,7 @@
       <c r="V71" s="27"/>
       <c r="W71" s="27"/>
     </row>
-    <row r="72" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="72" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>159</v>
       </c>
@@ -18499,7 +18499,7 @@
       <c r="V72" s="27"/>
       <c r="W72" s="27"/>
     </row>
-    <row r="73" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="73" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>108</v>
       </c>
@@ -18532,7 +18532,7 @@
       <c r="V73" s="27"/>
       <c r="W73" s="27"/>
     </row>
-    <row r="74" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="74" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>108</v>
       </c>
@@ -18565,7 +18565,7 @@
       <c r="V74" s="27"/>
       <c r="W74" s="27"/>
     </row>
-    <row r="75" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="75" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="12" t="s">
         <v>170</v>
@@ -18634,7 +18634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="76" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>172</v>
       </c>
@@ -18669,7 +18669,7 @@
       <c r="V76" s="27"/>
       <c r="W76" s="27"/>
     </row>
-    <row r="77" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="77" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="12" t="s">
         <v>174</v>
@@ -18738,7 +18738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="78" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="12" t="s">
         <v>177</v>
@@ -18807,7 +18807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="79" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="12" t="s">
         <v>180</v>
@@ -18876,7 +18876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="80" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="12" t="s">
         <v>182</v>
@@ -18945,7 +18945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="81" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="12" t="s">
         <v>184</v>
@@ -19014,7 +19014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="82" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="12" t="s">
         <v>186</v>
@@ -19083,7 +19083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="83" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="12" t="s">
         <v>188</v>
@@ -19152,7 +19152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="84" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>189</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="V84" s="27"/>
       <c r="W84" s="27"/>
     </row>
-    <row r="85" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="85" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="12" t="s">
         <v>191</v>
@@ -19254,7 +19254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="86" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="12" t="s">
         <v>192</v>
@@ -19323,7 +19323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="87" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="12" t="s">
         <v>194</v>
@@ -19392,7 +19392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="88" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="12" t="s">
         <v>195</v>
@@ -19461,7 +19461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="89" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="12" t="s">
         <v>197</v>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="X89" s="10"/>
     </row>
-    <row r="90" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="90" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="12" t="s">
         <v>199</v>
@@ -19600,7 +19600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="91" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="12" t="s">
         <v>201</v>
@@ -19669,7 +19669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="92" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>203</v>
       </c>
@@ -19702,7 +19702,7 @@
       <c r="V92" s="27"/>
       <c r="W92" s="27"/>
     </row>
-    <row r="93" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="93" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="12" t="s">
         <v>205</v>
@@ -19771,7 +19771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="94" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="12" t="s">
         <v>206</v>
@@ -19840,7 +19840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="95" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="12" t="s">
         <v>207</v>
@@ -19909,7 +19909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="96" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="12" t="s">
         <v>208</v>
@@ -19978,7 +19978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="97" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="12" t="s">
         <v>209</v>
@@ -20047,7 +20047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="98" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="12" t="s">
         <v>210</v>
@@ -20116,7 +20116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="99" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="12" t="s">
         <v>211</v>
@@ -20185,7 +20185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="100" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="12" t="s">
         <v>214</v>
@@ -20254,7 +20254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="101" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
         <v>215</v>
       </c>
@@ -20289,7 +20289,7 @@
       <c r="V101" s="27"/>
       <c r="W101" s="27"/>
     </row>
-    <row r="102" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="102" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
         <v>218</v>
       </c>
@@ -20324,7 +20324,7 @@
       <c r="V102" s="27"/>
       <c r="W102" s="27"/>
     </row>
-    <row r="103" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="103" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>221</v>
       </c>
@@ -20361,7 +20361,7 @@
       <c r="V103" s="27"/>
       <c r="W103" s="27"/>
     </row>
-    <row r="104" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="104" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>226</v>
       </c>
@@ -20394,7 +20394,7 @@
       <c r="V104" s="27"/>
       <c r="W104" s="27"/>
     </row>
-    <row r="105" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="105" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>229</v>
       </c>
@@ -20429,7 +20429,7 @@
       <c r="V105" s="27"/>
       <c r="W105" s="27"/>
     </row>
-    <row r="106" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="106" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>232</v>
       </c>
@@ -20464,7 +20464,7 @@
       <c r="V106" s="27"/>
       <c r="W106" s="27"/>
     </row>
-    <row r="107" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="107" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
@@ -20497,7 +20497,7 @@
       <c r="V107" s="27"/>
       <c r="W107" s="27"/>
     </row>
-    <row r="108" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="108" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>108</v>
       </c>
@@ -20530,7 +20530,7 @@
       <c r="V108" s="27"/>
       <c r="W108" s="27"/>
     </row>
-    <row r="109" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="109" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>236</v>
       </c>
@@ -20563,7 +20563,7 @@
       <c r="V109" s="27"/>
       <c r="W109" s="27"/>
     </row>
-    <row r="110" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="110" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>238</v>
       </c>
@@ -20596,7 +20596,7 @@
       <c r="V110" s="27"/>
       <c r="W110" s="27"/>
     </row>
-    <row r="111" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="111" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>241</v>
       </c>
@@ -20629,7 +20629,7 @@
       <c r="V111" s="27"/>
       <c r="W111" s="27"/>
     </row>
-    <row r="112" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="112" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>243</v>
       </c>
@@ -20662,7 +20662,7 @@
       <c r="V112" s="27"/>
       <c r="W112" s="27"/>
     </row>
-    <row r="113" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="113" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>245</v>
       </c>
@@ -20695,7 +20695,7 @@
       <c r="V113" s="27"/>
       <c r="W113" s="27"/>
     </row>
-    <row r="114" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="114" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>247</v>
       </c>
@@ -20730,7 +20730,7 @@
       <c r="V114" s="27"/>
       <c r="W114" s="27"/>
     </row>
-    <row r="115" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="115" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>251</v>
       </c>
@@ -20765,7 +20765,7 @@
       <c r="V115" s="27"/>
       <c r="W115" s="27"/>
     </row>
-    <row r="116" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="116" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="12" t="s">
         <v>255</v>
@@ -20834,7 +20834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="117" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>257</v>
       </c>
@@ -20869,7 +20869,7 @@
       <c r="V117" s="27"/>
       <c r="W117" s="27"/>
     </row>
-    <row r="118" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="118" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="12" t="s">
         <v>259</v>
@@ -20938,7 +20938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="119" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>261</v>
       </c>
@@ -20973,7 +20973,7 @@
       <c r="V119" s="27"/>
       <c r="W119" s="27"/>
     </row>
-    <row r="120" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="120" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="12" t="s">
         <v>262</v>
@@ -21042,7 +21042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="121" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="12" t="s">
         <v>264</v>
@@ -21111,7 +21111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="122" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="12" t="s">
         <v>265</v>
@@ -21180,7 +21180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="123" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="12" t="s">
         <v>268</v>
@@ -21250,7 +21250,7 @@
       </c>
       <c r="X123" s="10"/>
     </row>
-    <row r="124" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="124" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="12" t="s">
         <v>269</v>
@@ -21319,7 +21319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="125" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="12" t="s">
         <v>270</v>
@@ -21388,7 +21388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="126" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" s="12" t="s">
         <v>271</v>
@@ -21457,7 +21457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="127" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="12" t="s">
         <v>273</v>
@@ -21526,7 +21526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="128" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="12" t="s">
         <v>274</v>
@@ -21595,7 +21595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="129" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>276</v>
       </c>
@@ -21628,7 +21628,7 @@
       <c r="V129" s="27"/>
       <c r="W129" s="27"/>
     </row>
-    <row r="130" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="130" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>278</v>
       </c>
@@ -21661,7 +21661,7 @@
       <c r="V130" s="27"/>
       <c r="W130" s="27"/>
     </row>
-    <row r="131" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="131" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>278</v>
       </c>
@@ -21694,7 +21694,7 @@
       <c r="V131" s="27"/>
       <c r="W131" s="27"/>
     </row>
-    <row r="132" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="132" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="12" t="s">
         <v>280</v>
@@ -21763,7 +21763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="133" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="12" t="s">
         <v>281</v>
@@ -21832,7 +21832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="134" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>282</v>
       </c>
@@ -21865,7 +21865,7 @@
       <c r="V134" s="27"/>
       <c r="W134" s="27"/>
     </row>
-    <row r="135" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="135" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>282</v>
       </c>
@@ -21898,7 +21898,7 @@
       <c r="V135" s="27"/>
       <c r="W135" s="27"/>
     </row>
-    <row r="136" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="136" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>284</v>
       </c>
@@ -21931,7 +21931,7 @@
       <c r="V136" s="27"/>
       <c r="W136" s="27"/>
     </row>
-    <row r="137" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="137" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>282</v>
       </c>
@@ -21964,7 +21964,7 @@
       <c r="V137" s="27"/>
       <c r="W137" s="27"/>
     </row>
-    <row r="138" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="138" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>284</v>
       </c>
@@ -21997,7 +21997,7 @@
       <c r="V138" s="27"/>
       <c r="W138" s="27"/>
     </row>
-    <row r="139" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="139" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>289</v>
       </c>
@@ -22030,7 +22030,7 @@
       <c r="V139" s="27"/>
       <c r="W139" s="27"/>
     </row>
-    <row r="140" spans="1:24" ht="35.1" hidden="1" customHeight="1">
+    <row r="140" spans="1:24" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>108</v>
       </c>
@@ -22063,7 +22063,7 @@
       <c r="V140" s="27"/>
       <c r="W140" s="27"/>
     </row>
-    <row r="141" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="141" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="12" t="s">
         <v>292</v>
@@ -22132,7 +22132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="120" hidden="1" customHeight="1">
+    <row r="142" spans="1:24" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="B142" s="12" t="s">
         <v>293</v>
@@ -22201,7 +22201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="35.1" customHeight="1">
+    <row r="143" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>295</v>
       </c>
@@ -22234,7 +22234,7 @@
       <c r="V143" s="27"/>
       <c r="W143" s="27"/>
     </row>
-    <row r="144" spans="1:24" ht="120" customHeight="1">
+    <row r="144" spans="1:24" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" s="12" t="s">
         <v>298</v>
@@ -22304,7 +22304,7 @@
       </c>
       <c r="X144" s="10"/>
     </row>
-    <row r="145" spans="1:23" ht="120" customHeight="1">
+    <row r="145" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" s="12" t="s">
         <v>299</v>
@@ -22373,7 +22373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="120" customHeight="1">
+    <row r="146" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" s="12" t="s">
         <v>300</v>
@@ -22442,7 +22442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="120" customHeight="1">
+    <row r="147" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" s="12" t="s">
         <v>301</v>
@@ -22511,7 +22511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="148" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" s="12" t="s">
         <v>304</v>
@@ -22580,7 +22580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="149" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="12" t="s">
         <v>305</v>
@@ -22649,7 +22649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="150" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" s="12" t="s">
         <v>306</v>
@@ -22718,7 +22718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="151" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="12" t="s">
         <v>307</v>
@@ -22787,7 +22787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="152" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" s="12" t="s">
         <v>308</v>
@@ -22856,7 +22856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="153" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>309</v>
       </c>
@@ -22893,7 +22893,7 @@
       <c r="V153" s="27"/>
       <c r="W153" s="27"/>
     </row>
-    <row r="154" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="154" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="B154" s="12" t="s">
         <v>312</v>
@@ -22962,7 +22962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="155" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" s="12" t="s">
         <v>313</v>
@@ -23031,7 +23031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="156" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" s="12" t="s">
         <v>314</v>
@@ -23100,7 +23100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="157" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" s="12" t="s">
         <v>316</v>
@@ -23169,7 +23169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="158" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" s="12" t="s">
         <v>318</v>
@@ -23238,7 +23238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="159" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" s="12" t="s">
         <v>319</v>
@@ -23299,7 +23299,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="160" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>322</v>
       </c>
@@ -23332,7 +23332,7 @@
       <c r="V160" s="27"/>
       <c r="W160" s="27"/>
     </row>
-    <row r="161" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="161" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="19" t="s">
         <v>325</v>
       </c>
@@ -23365,7 +23365,7 @@
       <c r="V161" s="28"/>
       <c r="W161" s="28"/>
     </row>
-    <row r="162" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="162" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
       <c r="B162" s="12" t="s">
         <v>327</v>
@@ -23434,7 +23434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="163" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="B163" s="12" t="s">
         <v>329</v>
@@ -23503,7 +23503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="164" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
       <c r="B164" s="12" t="s">
         <v>330</v>
@@ -23572,7 +23572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="165" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>332</v>
       </c>
@@ -23607,7 +23607,7 @@
       <c r="V165" s="27"/>
       <c r="W165" s="27"/>
     </row>
-    <row r="166" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="166" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>332</v>
       </c>
@@ -23642,7 +23642,7 @@
       <c r="V166" s="27"/>
       <c r="W166" s="27"/>
     </row>
-    <row r="167" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="167" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>322</v>
       </c>
@@ -23677,7 +23677,7 @@
       <c r="V167" s="27"/>
       <c r="W167" s="27"/>
     </row>
-    <row r="168" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="168" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>322</v>
       </c>
@@ -23712,7 +23712,7 @@
       <c r="V168" s="27"/>
       <c r="W168" s="27"/>
     </row>
-    <row r="169" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="169" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
       <c r="B169" s="12" t="s">
         <v>337</v>
@@ -23781,7 +23781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="170" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
       <c r="B170" s="12" t="s">
         <v>338</v>
@@ -23850,7 +23850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="171" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="B171" s="12" t="s">
         <v>341</v>
@@ -23919,7 +23919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="172" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="B172" s="12" t="s">
         <v>342</v>
@@ -23988,7 +23988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="173" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
       <c r="B173" s="12" t="s">
         <v>343</v>
@@ -24057,7 +24057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="174" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
       <c r="B174" s="12" t="s">
         <v>344</v>
@@ -24126,7 +24126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="175" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>345</v>
       </c>
@@ -24161,7 +24161,7 @@
       <c r="V175" s="27"/>
       <c r="W175" s="27"/>
     </row>
-    <row r="176" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="176" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="B176" s="12" t="s">
         <v>347</v>
@@ -24230,7 +24230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="177" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="B177" s="12" t="s">
         <v>348</v>
@@ -24299,7 +24299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="178" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>349</v>
       </c>
@@ -24332,7 +24332,7 @@
       <c r="V178" s="27"/>
       <c r="W178" s="27"/>
     </row>
-    <row r="179" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="179" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>349</v>
       </c>
@@ -24365,7 +24365,7 @@
       <c r="V179" s="27"/>
       <c r="W179" s="27"/>
     </row>
-    <row r="180" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="180" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>349</v>
       </c>
@@ -24398,7 +24398,7 @@
       <c r="V180" s="27"/>
       <c r="W180" s="27"/>
     </row>
-    <row r="181" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="181" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="12" t="s">
         <v>353</v>
@@ -24467,7 +24467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="182" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8"/>
       <c r="B182" s="12" t="s">
         <v>354</v>
@@ -24536,7 +24536,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="183" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="B183" s="12" t="s">
         <v>356</v>
@@ -24605,7 +24605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="184" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>357</v>
       </c>
@@ -24638,7 +24638,7 @@
       <c r="V184" s="27"/>
       <c r="W184" s="27"/>
     </row>
-    <row r="185" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="185" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="B185" s="12" t="s">
         <v>359</v>
@@ -24707,7 +24707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="186" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
       <c r="B186" s="12" t="s">
         <v>361</v>
@@ -24776,7 +24776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="187" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>363</v>
       </c>
@@ -24809,7 +24809,7 @@
       <c r="V187" s="27"/>
       <c r="W187" s="27"/>
     </row>
-    <row r="188" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="188" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="B188" s="12" t="s">
         <v>366</v>
@@ -24878,7 +24878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="189" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="12" t="s">
         <v>367</v>
@@ -24947,7 +24947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="190" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="B190" s="12" t="s">
         <v>368</v>
@@ -25016,7 +25016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="191" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="B191" s="12" t="s">
         <v>370</v>
@@ -25085,7 +25085,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="192" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="B192" s="12" t="s">
         <v>371</v>
@@ -25154,7 +25154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="193" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
       <c r="B193" s="12" t="s">
         <v>372</v>
@@ -25223,7 +25223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="194" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>373</v>
       </c>
@@ -25256,7 +25256,7 @@
       <c r="V194" s="27"/>
       <c r="W194" s="27"/>
     </row>
-    <row r="195" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="195" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="B195" s="12" t="s">
         <v>375</v>
@@ -25325,7 +25325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="196" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="12" t="s">
         <v>376</v>
@@ -25394,7 +25394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="197" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>377</v>
       </c>
@@ -25429,7 +25429,7 @@
       <c r="V197" s="27"/>
       <c r="W197" s="27"/>
     </row>
-    <row r="198" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="198" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>377</v>
       </c>
@@ -25464,7 +25464,7 @@
       <c r="V198" s="27"/>
       <c r="W198" s="27"/>
     </row>
-    <row r="199" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="199" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="12" t="s">
         <v>379</v>
@@ -25533,7 +25533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="200" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="12" t="s">
         <v>382</v>
@@ -25602,7 +25602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="201" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="12" t="s">
         <v>384</v>
@@ -25671,7 +25671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="202" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="12" t="s">
         <v>385</v>
@@ -25740,7 +25740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="203" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="12" t="s">
         <v>388</v>
@@ -25809,7 +25809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="204" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="12" t="s">
         <v>390</v>
@@ -25878,7 +25878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="205" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="12" t="s">
         <v>391</v>
@@ -25947,7 +25947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="206" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="12" t="s">
         <v>393</v>
@@ -26016,7 +26016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="207" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="17"/>
       <c r="B207" s="12" t="s">
         <v>395</v>
@@ -26085,7 +26085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="208" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="19" t="s">
         <v>397</v>
       </c>
@@ -26118,7 +26118,7 @@
       <c r="V208" s="27"/>
       <c r="W208" s="27"/>
     </row>
-    <row r="209" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="209" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="19" t="s">
         <v>397</v>
       </c>
@@ -26151,7 +26151,7 @@
       <c r="V209" s="10"/>
       <c r="W209" s="10"/>
     </row>
-    <row r="210" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="210" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="12" t="s">
         <v>400</v>
@@ -26220,7 +26220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="211" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="12" t="s">
         <v>401</v>
@@ -26289,7 +26289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="212" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
         <v>402</v>
       </c>
@@ -26322,7 +26322,7 @@
       <c r="V212" s="27"/>
       <c r="W212" s="27"/>
     </row>
-    <row r="213" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="213" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
         <v>404</v>
       </c>
@@ -26355,7 +26355,7 @@
       <c r="V213" s="27"/>
       <c r="W213" s="27"/>
     </row>
-    <row r="214" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="214" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="19" t="s">
         <v>404</v>
       </c>
@@ -26388,7 +26388,7 @@
       <c r="V214" s="27"/>
       <c r="W214" s="27"/>
     </row>
-    <row r="215" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="215" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="12" t="s">
         <v>407</v>
@@ -26457,7 +26457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="216" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="19" t="s">
         <v>408</v>
       </c>
@@ -26490,7 +26490,7 @@
       <c r="V216" s="27"/>
       <c r="W216" s="27"/>
     </row>
-    <row r="217" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="217" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="19" t="s">
         <v>404</v>
       </c>
@@ -26523,7 +26523,7 @@
       <c r="V217" s="27"/>
       <c r="W217" s="27"/>
     </row>
-    <row r="218" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="218" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="19" t="s">
         <v>404</v>
       </c>
@@ -26556,7 +26556,7 @@
       <c r="V218" s="27"/>
       <c r="W218" s="27"/>
     </row>
-    <row r="219" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="219" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
       <c r="B219" s="12" t="s">
         <v>412</v>
@@ -26625,7 +26625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="220" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="19" t="s">
         <v>404</v>
       </c>
@@ -26658,7 +26658,7 @@
       <c r="V220" s="27"/>
       <c r="W220" s="27"/>
     </row>
-    <row r="221" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="221" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="19" t="s">
         <v>404</v>
       </c>
@@ -26691,7 +26691,7 @@
       <c r="V221" s="27"/>
       <c r="W221" s="27"/>
     </row>
-    <row r="222" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="222" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="19" t="s">
         <v>404</v>
       </c>
@@ -26724,7 +26724,7 @@
       <c r="V222" s="27"/>
       <c r="W222" s="27"/>
     </row>
-    <row r="223" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="223" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19" t="s">
         <v>404</v>
       </c>
@@ -26757,7 +26757,7 @@
       <c r="V223" s="27"/>
       <c r="W223" s="27"/>
     </row>
-    <row r="224" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="224" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="19" t="s">
         <v>404</v>
       </c>
@@ -26790,7 +26790,7 @@
       <c r="V224" s="27"/>
       <c r="W224" s="27"/>
     </row>
-    <row r="225" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="225" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="19" t="s">
         <v>404</v>
       </c>
@@ -26823,7 +26823,7 @@
       <c r="V225" s="27"/>
       <c r="W225" s="27"/>
     </row>
-    <row r="226" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="226" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="19" t="s">
         <v>404</v>
       </c>
@@ -26856,7 +26856,7 @@
       <c r="V226" s="27"/>
       <c r="W226" s="27"/>
     </row>
-    <row r="227" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="227" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19" t="s">
         <v>404</v>
       </c>
@@ -26889,7 +26889,7 @@
       <c r="V227" s="27"/>
       <c r="W227" s="27"/>
     </row>
-    <row r="228" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="228" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="8"/>
       <c r="B228" s="12" t="s">
         <v>422</v>
@@ -26954,7 +26954,7 @@
       <c r="V228" s="27"/>
       <c r="W228" s="27"/>
     </row>
-    <row r="229" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="229" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
         <v>404</v>
       </c>
@@ -26987,7 +26987,7 @@
       <c r="V229" s="27"/>
       <c r="W229" s="27"/>
     </row>
-    <row r="230" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="230" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="19" t="s">
         <v>404</v>
       </c>
@@ -27020,7 +27020,7 @@
       <c r="V230" s="27"/>
       <c r="W230" s="27"/>
     </row>
-    <row r="231" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="231" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="19" t="s">
         <v>404</v>
       </c>
@@ -27053,7 +27053,7 @@
       <c r="V231" s="27"/>
       <c r="W231" s="27"/>
     </row>
-    <row r="232" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="232" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="19" t="s">
         <v>404</v>
       </c>
@@ -27086,7 +27086,7 @@
       <c r="V232" s="27"/>
       <c r="W232" s="27"/>
     </row>
-    <row r="233" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="233" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="19" t="s">
         <v>404</v>
       </c>
@@ -27119,7 +27119,7 @@
       <c r="V233" s="27"/>
       <c r="W233" s="27"/>
     </row>
-    <row r="234" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="234" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="19" t="s">
         <v>404</v>
       </c>
@@ -27152,7 +27152,7 @@
       <c r="V234" s="27"/>
       <c r="W234" s="27"/>
     </row>
-    <row r="235" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="235" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="19" t="s">
         <v>404</v>
       </c>
@@ -27185,7 +27185,7 @@
       <c r="V235" s="27"/>
       <c r="W235" s="27"/>
     </row>
-    <row r="236" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="236" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="19" t="s">
         <v>404</v>
       </c>
@@ -27218,7 +27218,7 @@
       <c r="V236" s="27"/>
       <c r="W236" s="27"/>
     </row>
-    <row r="237" spans="1:23" s="30" customFormat="1" ht="35.1" hidden="1" customHeight="1">
+    <row r="237" spans="1:23" s="30" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="9" t="s">
         <v>106</v>
       </c>
@@ -27279,7 +27279,7 @@
       <c r="V237" s="27"/>
       <c r="W237" s="27"/>
     </row>
-    <row r="238" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="238" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>432</v>
       </c>
@@ -27312,7 +27312,7 @@
       <c r="V238" s="27"/>
       <c r="W238" s="27"/>
     </row>
-    <row r="239" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="239" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>432</v>
       </c>
@@ -27345,7 +27345,7 @@
       <c r="V239" s="27"/>
       <c r="W239" s="27"/>
     </row>
-    <row r="240" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="240" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>432</v>
       </c>
@@ -27378,7 +27378,7 @@
       <c r="V240" s="27"/>
       <c r="W240" s="27"/>
     </row>
-    <row r="241" spans="1:23" ht="120" customHeight="1">
+    <row r="241" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="8"/>
       <c r="B241" s="12" t="s">
         <v>436</v>
@@ -27447,7 +27447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="242" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8"/>
       <c r="B242" s="12" t="s">
         <v>439</v>
@@ -27516,7 +27516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="243" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
         <v>108</v>
       </c>
@@ -27549,7 +27549,7 @@
       <c r="V243" s="27"/>
       <c r="W243" s="27"/>
     </row>
-    <row r="244" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="244" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="8"/>
       <c r="B244" s="12" t="s">
         <v>445</v>
@@ -27618,7 +27618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="245" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8"/>
       <c r="B245" s="12" t="s">
         <v>447</v>
@@ -27687,7 +27687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="246" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="8"/>
       <c r="B246" s="12" t="s">
         <v>449</v>
@@ -27756,7 +27756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="247" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>450</v>
       </c>
@@ -27789,7 +27789,7 @@
       <c r="V247" s="27"/>
       <c r="W247" s="27"/>
     </row>
-    <row r="248" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="248" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>450</v>
       </c>
@@ -27822,7 +27822,7 @@
       <c r="V248" s="27"/>
       <c r="W248" s="27"/>
     </row>
-    <row r="249" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="249" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="8"/>
       <c r="B249" s="12" t="s">
         <v>453</v>
@@ -27891,7 +27891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="250" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>455</v>
       </c>
@@ -27924,7 +27924,7 @@
       <c r="V250" s="27"/>
       <c r="W250" s="27"/>
     </row>
-    <row r="251" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="251" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>455</v>
       </c>
@@ -27957,7 +27957,7 @@
       <c r="V251" s="27"/>
       <c r="W251" s="27"/>
     </row>
-    <row r="252" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="252" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>455</v>
       </c>
@@ -27990,7 +27990,7 @@
       <c r="V252" s="27"/>
       <c r="W252" s="27"/>
     </row>
-    <row r="253" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="253" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="8"/>
       <c r="B253" s="12" t="s">
         <v>459</v>
@@ -28059,7 +28059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="254" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>461</v>
       </c>
@@ -28092,7 +28092,7 @@
       <c r="V254" s="27"/>
       <c r="W254" s="27"/>
     </row>
-    <row r="255" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="255" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
       <c r="B255" s="12" t="s">
         <v>463</v>
@@ -28161,7 +28161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="256" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="8"/>
       <c r="B256" s="12" t="s">
         <v>464</v>
@@ -28230,7 +28230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="257" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="8"/>
       <c r="B257" s="12" t="s">
         <v>465</v>
@@ -28299,7 +28299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="258" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
       <c r="B258" s="12" t="s">
         <v>466</v>
@@ -28368,7 +28368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="259" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
       <c r="B259" s="12" t="s">
         <v>467</v>
@@ -28437,7 +28437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="260" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="8"/>
       <c r="B260" s="12" t="s">
         <v>468</v>
@@ -28506,7 +28506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="261" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
       <c r="B261" s="12" t="s">
         <v>469</v>
@@ -28575,7 +28575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="262" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="8"/>
       <c r="B262" s="12" t="s">
         <v>470</v>
@@ -28644,7 +28644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="263" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>471</v>
       </c>
@@ -28677,7 +28677,7 @@
       <c r="V263" s="27"/>
       <c r="W263" s="27"/>
     </row>
-    <row r="264" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="264" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="8"/>
       <c r="B264" s="12" t="s">
         <v>473</v>
@@ -28746,7 +28746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="265" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
       <c r="B265" s="12" t="s">
         <v>474</v>
@@ -28815,7 +28815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="266" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
       <c r="B266" s="12" t="s">
         <v>475</v>
@@ -28884,7 +28884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="267" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
       <c r="B267" s="12" t="s">
         <v>476</v>
@@ -28953,7 +28953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="268" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
       <c r="B268" s="12" t="s">
         <v>477</v>
@@ -29022,7 +29022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="269" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
       <c r="B269" s="12" t="s">
         <v>478</v>
@@ -29091,7 +29091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="270" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="8"/>
       <c r="B270" s="12" t="s">
         <v>479</v>
@@ -29160,7 +29160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="271" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
       <c r="B271" s="12" t="s">
         <v>480</v>
@@ -29229,7 +29229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="272" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="8"/>
       <c r="B272" s="12" t="s">
         <v>481</v>
@@ -29298,7 +29298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="273" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="8"/>
       <c r="B273" s="12" t="s">
         <v>482</v>
@@ -29367,7 +29367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="274" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
       <c r="B274" s="12" t="s">
         <v>483</v>
@@ -29436,7 +29436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="275" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="8"/>
       <c r="B275" s="12" t="s">
         <v>484</v>
@@ -29505,7 +29505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="276" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="8"/>
       <c r="B276" s="12" t="s">
         <v>485</v>
@@ -29574,7 +29574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="277" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
       <c r="B277" s="12" t="s">
         <v>486</v>
@@ -29643,7 +29643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="278" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="8"/>
       <c r="B278" s="12" t="s">
         <v>487</v>
@@ -29712,7 +29712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="279" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="8"/>
       <c r="B279" s="12" t="s">
         <v>488</v>
@@ -29781,7 +29781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="280" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="8"/>
       <c r="B280" s="12" t="s">
         <v>489</v>
@@ -29850,7 +29850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="281" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="15" t="s">
         <v>108</v>
       </c>
@@ -29883,7 +29883,7 @@
       <c r="V281" s="27"/>
       <c r="W281" s="27"/>
     </row>
-    <row r="282" spans="1:23" ht="120" customHeight="1">
+    <row r="282" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="12" t="s">
         <v>491</v>
@@ -29952,7 +29952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="35.1" customHeight="1">
+    <row r="283" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="15" t="s">
         <v>108</v>
       </c>
@@ -29985,7 +29985,7 @@
       <c r="V283" s="27"/>
       <c r="W283" s="27"/>
     </row>
-    <row r="284" spans="1:23" ht="120" customHeight="1">
+    <row r="284" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="8"/>
       <c r="B284" s="12" t="s">
         <v>495</v>
@@ -30054,7 +30054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="285" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="8"/>
       <c r="B285" s="12" t="s">
         <v>497</v>
@@ -30123,7 +30123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="34.5" hidden="1" customHeight="1">
+    <row r="286" spans="1:23" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="10" t="s">
         <v>108</v>
       </c>
@@ -30156,7 +30156,7 @@
       <c r="V286" s="27"/>
       <c r="W286" s="27"/>
     </row>
-    <row r="287" spans="1:23" s="30" customFormat="1" ht="35.1" hidden="1" customHeight="1">
+    <row r="287" spans="1:23" s="30" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="9" t="s">
         <v>500</v>
       </c>
@@ -30189,7 +30189,7 @@
       <c r="V287" s="27"/>
       <c r="W287" s="27"/>
     </row>
-    <row r="288" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="288" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="8"/>
       <c r="B288" s="12" t="s">
         <v>502</v>
@@ -30258,7 +30258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:23" s="30" customFormat="1" ht="35.1" hidden="1" customHeight="1">
+    <row r="289" spans="1:23" s="30" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="9" t="s">
         <v>504</v>
       </c>
@@ -30291,7 +30291,7 @@
       <c r="V289" s="27"/>
       <c r="W289" s="27"/>
     </row>
-    <row r="290" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="290" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
       <c r="B290" s="12" t="s">
         <v>506</v>
@@ -30360,7 +30360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:23" s="30" customFormat="1" ht="35.1" hidden="1" customHeight="1">
+    <row r="291" spans="1:23" s="30" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="9" t="s">
         <v>507</v>
       </c>
@@ -30393,7 +30393,7 @@
       <c r="V291" s="27"/>
       <c r="W291" s="27"/>
     </row>
-    <row r="292" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="292" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="8"/>
       <c r="B292" s="12" t="s">
         <v>509</v>
@@ -30462,7 +30462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="293" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
         <v>510</v>
       </c>
@@ -30495,7 +30495,7 @@
       <c r="V293" s="27"/>
       <c r="W293" s="27"/>
     </row>
-    <row r="294" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="294" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
       <c r="B294" s="12" t="s">
         <v>512</v>
@@ -30564,7 +30564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="295" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="8"/>
       <c r="B295" s="12" t="s">
         <v>514</v>
@@ -30633,7 +30633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="296" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
       <c r="B296" s="12" t="s">
         <v>515</v>
@@ -30702,7 +30702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="297" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
       <c r="B297" s="12" t="s">
         <v>516</v>
@@ -30771,7 +30771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="298" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="8"/>
       <c r="B298" s="12" t="s">
         <v>517</v>
@@ -30840,7 +30840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="299" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
       <c r="B299" s="12" t="s">
         <v>519</v>
@@ -30909,7 +30909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="34.5" hidden="1" customHeight="1">
+    <row r="300" spans="1:23" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="19" t="s">
         <v>520</v>
       </c>
@@ -30942,7 +30942,7 @@
       <c r="V300" s="28"/>
       <c r="W300" s="28"/>
     </row>
-    <row r="301" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="301" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="12" t="s">
         <v>522</v>
@@ -31011,7 +31011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="302" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="19" t="s">
         <v>523</v>
       </c>
@@ -31044,7 +31044,7 @@
       <c r="V302" s="27"/>
       <c r="W302" s="27"/>
     </row>
-    <row r="303" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="303" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="12" t="s">
         <v>525</v>
@@ -31113,7 +31113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="304" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="12" t="s">
         <v>526</v>
@@ -31182,7 +31182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="305" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="12" t="s">
         <v>527</v>
@@ -31251,7 +31251,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="306" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="12" t="s">
         <v>528</v>
@@ -31320,7 +31320,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="307" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="12" t="s">
         <v>530</v>
@@ -31389,7 +31389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="308" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
       <c r="B308" s="12" t="s">
         <v>533</v>
@@ -31458,7 +31458,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="309" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="12" t="s">
         <v>534</v>
@@ -31527,7 +31527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="310" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="12" t="s">
         <v>535</v>
@@ -31596,7 +31596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="311" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="12" t="s">
         <v>539</v>
@@ -31665,7 +31665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="312" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="19" t="s">
         <v>542</v>
       </c>
@@ -31698,7 +31698,7 @@
       <c r="V312" s="27"/>
       <c r="W312" s="27"/>
     </row>
-    <row r="313" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="313" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="19" t="s">
         <v>542</v>
       </c>
@@ -31731,7 +31731,7 @@
       <c r="V313" s="27"/>
       <c r="W313" s="27"/>
     </row>
-    <row r="314" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="314" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="19" t="s">
         <v>542</v>
       </c>
@@ -31764,7 +31764,7 @@
       <c r="V314" s="27"/>
       <c r="W314" s="27"/>
     </row>
-    <row r="315" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="315" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="12" t="s">
         <v>546</v>
@@ -31833,7 +31833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="316" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="15" t="s">
         <v>108</v>
       </c>
@@ -31866,7 +31866,7 @@
       <c r="V316" s="27"/>
       <c r="W316" s="27"/>
     </row>
-    <row r="317" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="317" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="15" t="s">
         <v>108</v>
       </c>
@@ -31899,7 +31899,7 @@
       <c r="V317" s="27"/>
       <c r="W317" s="27"/>
     </row>
-    <row r="318" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="318" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="19" t="s">
         <v>551</v>
       </c>
@@ -31932,7 +31932,7 @@
       <c r="V318" s="27"/>
       <c r="W318" s="27"/>
     </row>
-    <row r="319" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="319" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="19" t="s">
         <v>551</v>
       </c>
@@ -31965,7 +31965,7 @@
       <c r="V319" s="27"/>
       <c r="W319" s="27"/>
     </row>
-    <row r="320" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="320" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="15" t="s">
         <v>108</v>
       </c>
@@ -31998,7 +31998,7 @@
       <c r="V320" s="27"/>
       <c r="W320" s="27"/>
     </row>
-    <row r="321" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="321" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="19" t="s">
         <v>551</v>
       </c>
@@ -32031,7 +32031,7 @@
       <c r="V321" s="27"/>
       <c r="W321" s="27"/>
     </row>
-    <row r="322" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="322" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="15" t="s">
         <v>108</v>
       </c>
@@ -32064,7 +32064,7 @@
       <c r="V322" s="27"/>
       <c r="W322" s="27"/>
     </row>
-    <row r="323" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="323" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="19" t="s">
         <v>551</v>
       </c>
@@ -32097,7 +32097,7 @@
       <c r="V323" s="27"/>
       <c r="W323" s="27"/>
     </row>
-    <row r="324" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="324" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="15" t="s">
         <v>108</v>
       </c>
@@ -32130,7 +32130,7 @@
       <c r="V324" s="27"/>
       <c r="W324" s="27"/>
     </row>
-    <row r="325" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="325" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="19" t="s">
         <v>551</v>
       </c>
@@ -32165,7 +32165,7 @@
       <c r="V325" s="27"/>
       <c r="W325" s="27"/>
     </row>
-    <row r="326" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="326" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="19" t="s">
         <v>551</v>
       </c>
@@ -32198,7 +32198,7 @@
       <c r="V326" s="27"/>
       <c r="W326" s="27"/>
     </row>
-    <row r="327" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="327" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="19" t="s">
         <v>551</v>
       </c>
@@ -32231,7 +32231,7 @@
       <c r="V327" s="27"/>
       <c r="W327" s="27"/>
     </row>
-    <row r="328" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="328" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="19" t="s">
         <v>551</v>
       </c>
@@ -32264,7 +32264,7 @@
       <c r="V328" s="27"/>
       <c r="W328" s="27"/>
     </row>
-    <row r="329" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="329" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="19" t="s">
         <v>551</v>
       </c>
@@ -32297,7 +32297,7 @@
       <c r="V329" s="27"/>
       <c r="W329" s="27"/>
     </row>
-    <row r="330" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="330" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="19" t="s">
         <v>551</v>
       </c>
@@ -32330,7 +32330,7 @@
       <c r="V330" s="27"/>
       <c r="W330" s="27"/>
     </row>
-    <row r="331" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="331" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="19" t="s">
         <v>551</v>
       </c>
@@ -32365,7 +32365,7 @@
       <c r="V331" s="27"/>
       <c r="W331" s="27"/>
     </row>
-    <row r="332" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="332" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="19" t="s">
         <v>551</v>
       </c>
@@ -32398,7 +32398,7 @@
       <c r="V332" s="27"/>
       <c r="W332" s="27"/>
     </row>
-    <row r="333" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="333" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="19" t="s">
         <v>551</v>
       </c>
@@ -32431,7 +32431,7 @@
       <c r="V333" s="27"/>
       <c r="W333" s="27"/>
     </row>
-    <row r="334" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="334" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="19" t="s">
         <v>551</v>
       </c>
@@ -32464,7 +32464,7 @@
       <c r="V334" s="27"/>
       <c r="W334" s="27"/>
     </row>
-    <row r="335" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="335" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="19" t="s">
         <v>551</v>
       </c>
@@ -32497,7 +32497,7 @@
       <c r="V335" s="27"/>
       <c r="W335" s="27"/>
     </row>
-    <row r="336" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="336" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="19" t="s">
         <v>551</v>
       </c>
@@ -32530,7 +32530,7 @@
       <c r="V336" s="27"/>
       <c r="W336" s="27"/>
     </row>
-    <row r="337" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="337" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="19" t="s">
         <v>551</v>
       </c>
@@ -32563,7 +32563,7 @@
       <c r="V337" s="27"/>
       <c r="W337" s="27"/>
     </row>
-    <row r="338" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="338" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="31" t="s">
         <v>574</v>
       </c>
@@ -32596,7 +32596,7 @@
       <c r="V338" s="27"/>
       <c r="W338" s="27"/>
     </row>
-    <row r="339" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="339" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="31" t="s">
         <v>574</v>
       </c>
@@ -32629,7 +32629,7 @@
       <c r="V339" s="27"/>
       <c r="W339" s="27"/>
     </row>
-    <row r="340" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="340" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="31" t="s">
         <v>574</v>
       </c>
@@ -32662,7 +32662,7 @@
       <c r="V340" s="27"/>
       <c r="W340" s="27"/>
     </row>
-    <row r="341" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="341" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
       <c r="B341" s="12" t="s">
         <v>578</v>
@@ -32731,7 +32731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="342" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="17"/>
       <c r="B342" s="12" t="s">
         <v>581</v>
@@ -32800,7 +32800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="343" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="17"/>
       <c r="B343" s="12" t="s">
         <v>584</v>
@@ -32869,7 +32869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="344" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="19" t="s">
         <v>587</v>
       </c>
@@ -32902,7 +32902,7 @@
       <c r="V344" s="27"/>
       <c r="W344" s="27"/>
     </row>
-    <row r="345" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="345" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
       <c r="B345" s="12" t="s">
         <v>589</v>
@@ -32971,7 +32971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="346" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="17"/>
       <c r="B346" s="12" t="s">
         <v>590</v>
@@ -33040,7 +33040,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="347" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
       <c r="B347" s="12" t="s">
         <v>592</v>
@@ -33109,7 +33109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="348" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="19" t="s">
         <v>595</v>
       </c>
@@ -33142,7 +33142,7 @@
       <c r="V348" s="27"/>
       <c r="W348" s="27"/>
     </row>
-    <row r="349" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="349" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="19" t="s">
         <v>595</v>
       </c>
@@ -33175,7 +33175,7 @@
       <c r="V349" s="27"/>
       <c r="W349" s="27"/>
     </row>
-    <row r="350" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="350" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="19" t="s">
         <v>600</v>
       </c>
@@ -33208,7 +33208,7 @@
       <c r="V350" s="27"/>
       <c r="W350" s="27"/>
     </row>
-    <row r="351" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="351" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="15" t="s">
         <v>108</v>
       </c>
@@ -33241,7 +33241,7 @@
       <c r="V351" s="27"/>
       <c r="W351" s="27"/>
     </row>
-    <row r="352" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="352" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="17"/>
       <c r="B352" s="12" t="s">
         <v>604</v>
@@ -33310,7 +33310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="120" hidden="1" customHeight="1">
+    <row r="353" spans="1:23" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
       <c r="B353" s="12" t="s">
         <v>605</v>
@@ -33379,7 +33379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="35.1" hidden="1" customHeight="1">
+    <row r="354" spans="1:23" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="15" t="s">
         <v>108</v>
       </c>
@@ -33569,13 +33569,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="4" width="58.109375" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" customWidth="1"/>
+    <col min="20" max="20" width="22.44140625" customWidth="1"/>
+    <col min="21" max="21" width="22.109375" customWidth="1"/>
+    <col min="22" max="23" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33585,7 +33681,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33745,13 +33841,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DEC883-DDFB-45B2-8B1F-88BABC3397F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DEC883-DDFB-45B2-8B1F-88BABC3397F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EF29A4D-7B85-42A9-9492-C3F07FA064B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EF29A4D-7B85-42A9-9492-C3F07FA064B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52bafd6b-34fe-4cb3-8fc0-ca634745570d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFF34CF6-D13C-4B0A-B291-7A27F3BF1422}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFF34CF6-D13C-4B0A-B291-7A27F3BF1422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>